--- a/biology/Microbiologie/Nuclearia/Nuclearia.xlsx
+++ b/biology/Microbiologie/Nuclearia/Nuclearia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nuclearia est un genre d'amibes holomycètes de la famille des Nucleariidae[1] à filaments pseudopodes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nuclearia est un genre d'amibes holomycètes de la famille des Nucleariidae à filaments pseudopodes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Nuclearia a été créé en 1865 par le bactériologiste polono-russe Lev Tsenkovsky (d)[2] (1822-1887)[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Nuclearia a été créé en 1865 par le bactériologiste polono-russe Lev Tsenkovsky (d) (1822-1887),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (1 septembre 2022)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (1 septembre 2022) :
 Nuclearia delicatula Cienkowski, 1865
 Nuclearia moebiusi Frenzel, 1897
 Nuclearia pattersoni Dykova, Veverkova, Fiala, Machackova &amp; Peckova, 2003
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) L. Cienkowski, « Beiträge zur Kenntniss der Monaden », Archiv für Mikroskopische Anatomie, Berlin, vol. 1, no 1,‎ décembre 1865, p. 203-232 (ISSN 0176-7364, OCLC 6201139, DOI 10.1007/BF02961414, lire en ligne)</t>
         </is>
